--- a/biology/Zoologie/Aipysurus_fuscus/Aipysurus_fuscus.xlsx
+++ b/biology/Zoologie/Aipysurus_fuscus/Aipysurus_fuscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aipysurus fuscus est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aipysurus fuscus est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine se rencontre dans les eaux de l'Australie, de l'Indonésie et du Timor oriental en mer de Timor près des récifs Ashmore, Hibernia, Scott, Serangipatan et de l'île Cartier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine se rencontre dans les eaux de l'Australie, de l'Indonésie et du Timor oriental en mer de Timor près des récifs Ashmore, Hibernia, Scott, Serangipatan et de l'île Cartier.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tschudi, 1837 : Neues Genus von Wasserschlangen. Archiv für Naturgeschichte, vol. 3, n. 1, p. 331-335 (texte intégral).</t>
         </is>
